--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Modules24-26_PracticTasks\University\University\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PracticalWeek3.Backend\PracticalWeek3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A30DA2-1940-46EA-B61F-335CB5BE2055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2647D-4B79-4C7F-B27E-D31CDB8020BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>id университета</t>
   </si>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +978,46 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1989</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1989</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
     </row>

--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PracticalWeek3.Backend\PracticalWeek3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2647D-4B79-4C7F-B27E-D31CDB8020BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D9ACC0-995B-4B55-AB7B-D3460316FFA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>id университета</t>
   </si>
@@ -569,12 +569,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,46 +979,6 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>1989</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>1989</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
         <v>49</v>
       </c>
     </row>
